--- a/www.eia.gov/electricity/monthly/xls/table_1_08_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_08_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.8.B. Utility Scale Facility Net Generation from Other Gases</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="C14" s="10">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="D14" s="11">
-        <v>0.14599999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="10">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="L14" s="10">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,13 +1696,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="13">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C15" s="13">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D15" s="14">
-        <v>7.5999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="L15" s="13">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="13">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="C17" s="13">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="D17" s="14">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="L17" s="13">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>4187</v>
+        <v>4550</v>
       </c>
       <c r="C18" s="10">
-        <v>4132</v>
+        <v>4383</v>
       </c>
       <c r="D18" s="11">
-        <v>1.2999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F18" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G18" s="10">
-        <v>1843</v>
+        <v>2018</v>
       </c>
       <c r="H18" s="10">
-        <v>1622</v>
+        <v>1685</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="10">
-        <v>2224</v>
+        <v>2390</v>
       </c>
       <c r="L18" s="10">
-        <v>2314</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,13 +1848,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="13">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C19" s="13">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D19" s="14">
-        <v>0.13700000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="13">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L19" s="13">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,19 +1886,19 @@
         <v>31</v>
       </c>
       <c r="B20" s="13">
-        <v>1812</v>
+        <v>1954</v>
       </c>
       <c r="C20" s="13">
-        <v>1941</v>
+        <v>2103</v>
       </c>
       <c r="D20" s="14">
-        <v>-6.7000000000000004E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="13">
-        <v>1794</v>
+        <v>1935</v>
       </c>
       <c r="L20" s="13">
-        <v>1924</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,22 +1924,22 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>1317</v>
+        <v>1478</v>
       </c>
       <c r="C21" s="13">
         <v>1176</v>
       </c>
       <c r="D21" s="14">
-        <v>0.12</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E21" s="13">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F21" s="13">
         <v>178</v>
       </c>
       <c r="G21" s="13">
-        <v>1215</v>
+        <v>1355</v>
       </c>
       <c r="H21" s="13">
         <v>997</v>
@@ -1962,13 +1962,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="13">
-        <v>806</v>
+        <v>852</v>
       </c>
       <c r="C22" s="13">
-        <v>793</v>
+        <v>868</v>
       </c>
       <c r="D22" s="14">
-        <v>1.7000000000000001E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="H22" s="13">
-        <v>624</v>
+        <v>686</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L22" s="13">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,13 +2038,13 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="11">
-        <v>0.129</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L24" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,13 +2266,13 @@
         <v>41</v>
       </c>
       <c r="B30" s="13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="14">
-        <v>0.129</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L30" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,13 +2342,13 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C32" s="10">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D32" s="11">
-        <v>0.19700000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="10">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="L32" s="10">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="13">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C33" s="13">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D33" s="14">
-        <v>0.248</v>
+        <v>0.19</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="L33" s="13">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,13 +2456,13 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="14">
-        <v>0.1</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,13 +2684,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41" s="13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.182</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L41" s="13">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,13 +2722,13 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C42" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="11">
-        <v>-0.27</v>
+        <v>-0.20399999999999999</v>
       </c>
       <c r="E42" s="10">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L42" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,13 +2760,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C43" s="13">
         <v>36</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.41399999999999998</v>
+        <v>-0.35</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L43" s="13">
         <v>36</v>
@@ -2874,13 +2874,13 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" s="14">
-        <v>0.24299999999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L46" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,13 +2912,13 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>3945</v>
+        <v>4330</v>
       </c>
       <c r="C47" s="10">
-        <v>4114</v>
+        <v>4496</v>
       </c>
       <c r="D47" s="11">
-        <v>-4.1000000000000002E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="10">
-        <v>1071</v>
+        <v>1206</v>
       </c>
       <c r="H47" s="10">
-        <v>1017</v>
+        <v>1149</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>2874</v>
+        <v>3124</v>
       </c>
       <c r="L47" s="10">
-        <v>3097</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>1774</v>
+        <v>1922</v>
       </c>
       <c r="C49" s="13">
-        <v>2021</v>
+        <v>2181</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.122</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>1774</v>
+        <v>1922</v>
       </c>
       <c r="L49" s="13">
-        <v>2021</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>2171</v>
+        <v>2408</v>
       </c>
       <c r="C51" s="13">
-        <v>2093</v>
+        <v>2315</v>
       </c>
       <c r="D51" s="14">
-        <v>3.6999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>1071</v>
+        <v>1206</v>
       </c>
       <c r="H51" s="13">
-        <v>1017</v>
+        <v>1149</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>1099</v>
+        <v>1202</v>
       </c>
       <c r="L51" s="13">
-        <v>1076</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,13 +3102,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C52" s="10">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="D52" s="11">
-        <v>-0.16200000000000001</v>
+        <v>-0.153</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="10">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L52" s="10">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.54700000000000004</v>
+        <v>-0.53700000000000003</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.85499999999999998</v>
+        <v>-0.86199999999999999</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>25</v>
@@ -3398,7 +3398,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,13 +3406,13 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="C60" s="13">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.13700000000000001</v>
+        <v>-0.127</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L60" s="13">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,13 +3444,13 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>1564</v>
+        <v>1700</v>
       </c>
       <c r="C61" s="10">
-        <v>1618</v>
+        <v>1764</v>
       </c>
       <c r="D61" s="11">
-        <v>-3.4000000000000002E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E61" s="10">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="10">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="H61" s="10">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>1226</v>
+        <v>1336</v>
       </c>
       <c r="L61" s="10">
-        <v>1295</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>1226</v>
+        <v>1336</v>
       </c>
       <c r="C62" s="13">
-        <v>1295</v>
+        <v>1405</v>
       </c>
       <c r="D62" s="14">
-        <v>-5.2999999999999999E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="13">
-        <v>1226</v>
+        <v>1336</v>
       </c>
       <c r="L62" s="13">
-        <v>1295</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,13 +3558,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C64" s="13">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="D64" s="14">
-        <v>4.3999999999999997E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3573,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="13">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="H64" s="13">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C65" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.153</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L65" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3672,13 +3672,13 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C67" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.153</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L67" s="13">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,25 +3710,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>10986</v>
+        <v>11987</v>
       </c>
       <c r="C68" s="10">
-        <v>11105</v>
+        <v>12007</v>
       </c>
       <c r="D68" s="11">
-        <v>-1.0999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="E68" s="10">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F68" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G68" s="10">
-        <v>3259</v>
+        <v>3598</v>
       </c>
       <c r="H68" s="10">
-        <v>2981</v>
+        <v>3214</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="10">
-        <v>7608</v>
+        <v>8248</v>
       </c>
       <c r="L68" s="10">
-        <v>7928</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
